--- a/public/nopajaktemplate.xlsx
+++ b/public/nopajaktemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJEK\inventorykpa\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FA8EDA-2F62-4EA0-86ED-A18CE6315A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="3324" yWindow="1344" windowWidth="17280" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -24,15 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>No Pajak</t>
   </si>
+  <si>
+    <t>No_KPA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,18 +347,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/nopajaktemplate.xlsx
+++ b/public/nopajaktemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJEK\inventorykpa\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FA8EDA-2F62-4EA0-86ED-A18CE6315A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEED272B-4F88-4A06-B4D5-CB24BEAD2B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3324" yWindow="1344" windowWidth="17280" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -350,9 +350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
